--- a/StudentData/Tutorials/Unit3/3.1.1/restaurant_chain_probability.xlsx
+++ b/StudentData/Tutorials/Unit3/3.1.1/restaurant_chain_probability.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tutorials\Unit 3\Tutorial 3.1.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/StudentData/Tutorials/Unit3/3.1.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC2925F-C79B-44D9-BAEB-B36B3F79B656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{756EE899-EA0E-4FC6-B1A3-45B3D91CD76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{9802CF90-D9AB-4323-945D-C01083E45FE5}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{9802CF90-D9AB-4323-945D-C01083E45FE5}"/>
   </bookViews>
   <sheets>
     <sheet name="worksheet" sheetId="1" r:id="rId1"/>
-    <sheet name="solution" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,34 +36,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Customer Vists</t>
   </si>
   <si>
     <t>Probability</t>
   </si>
-  <si>
-    <t>Expected Value</t>
-  </si>
-  <si>
-    <t>Expected Number of Visits</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -92,12 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,14 +420,14 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.53515625" customWidth="1"/>
+    <col min="3" max="3" width="13.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>100</v>
       </c>
@@ -461,7 +443,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>150</v>
       </c>
@@ -469,7 +451,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>200</v>
       </c>
@@ -477,7 +459,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>250</v>
       </c>
@@ -490,96 +472,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A702BB85-D45F-4912-A403-FDC4DAFA28A6}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView showFormulas="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>100</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="C2">
-        <f>A2*B2</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>150</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C5" si="0">A3*B3</f>
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>200</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>250</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="29.1">
-      <c r="C6">
-        <f>SUM(C2:C5)</f>
-        <v>162.5</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c7bf0040-ac83-4da7-b072-3c1b65a214b3" xsi:nil="true"/>
+    <Status xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
+    <Tag xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
+    <Year xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DD084E42E705654B9CF1FB4D1B6F86C3" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="537e09eec9479df6b3b9277a829eeea6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xmlns:ns3="c7bf0040-ac83-4da7-b072-3c1b65a214b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="954325e78edeaac226e03e3e0adada46" ns2:_="" ns3:_="">
     <xsd:import namespace="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
@@ -843,37 +759,46 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c7bf0040-ac83-4da7-b072-3c1b65a214b3" xsi:nil="true"/>
-    <Status xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
-    <Tag xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
-    <Year xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3AD92CA-AABB-41FA-9063-8BEBD5F0A39C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1148989D-0473-422A-B9AB-FDCA8AFCB099}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E76753EA-1D7D-46AB-8B48-23837B90094F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E76753EA-1D7D-46AB-8B48-23837B90094F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1148989D-0473-422A-B9AB-FDCA8AFCB099}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3AD92CA-AABB-41FA-9063-8BEBD5F0A39C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" enabled="0" method="" siteId="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" removed="1"/>
+</clbl:labelList>
 </file>